--- a/docs/20140609_buglist_befor_release_20140701.xlsx
+++ b/docs/20140609_buglist_befor_release_20140701.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Buglist" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="50">
   <si>
     <t>BUG-ID</t>
   </si>
@@ -127,7 +127,49 @@
     <t xml:space="preserve">Hiển thị danh sách category </t>
   </si>
   <si>
-    <t>Hiển thị tiếng anh / TV không đúng. Trong phần category - đăng sản phẩm</t>
+    <t>Hiển thị tiếng anh / TV không đúng. Trong phần đăng sản phẩm</t>
+  </si>
+  <si>
+    <t>user menu không hiển thị chữ</t>
+  </si>
+  <si>
+    <t>Home phần danh mục của người dùng chưa hiển thị danh sách</t>
+  </si>
+  <si>
+    <t>Tìm kiếm X2 kết quá</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sản phẩm 33 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sản phẩm không add to cart được </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Căn giữa </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cho các item trong menu </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bỏ viền của ô search </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Danh mục GIFT </t>
+  </si>
+  <si>
+    <t>Hiện tại chọn danh mục gift chưa ra được sản phẩm</t>
+  </si>
+  <si>
+    <t>Click vào live chat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chưa vào được </t>
+  </si>
+  <si>
+    <t>Icon giỏ hàng cần đi vào cart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hiện tại : đưa lên top </t>
   </si>
 </sst>
 </file>
@@ -518,8 +560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -647,25 +689,35 @@
       <c r="E7" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="2"/>
+      <c r="F7" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="2"/>
+      <c r="B8" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
+      <c r="E8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="2"/>
+      <c r="B9" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -676,10 +728,14 @@
       <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="2"/>
+      <c r="B10" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+      <c r="E10" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
@@ -687,10 +743,14 @@
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="2"/>
+      <c r="B11" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+      <c r="E11" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
@@ -698,7 +758,9 @@
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -709,10 +771,14 @@
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="2"/>
+      <c r="B13" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
+      <c r="E13" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
@@ -720,10 +786,14 @@
       <c r="A14" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="2"/>
+      <c r="B14" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
+      <c r="E14" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
@@ -731,10 +801,14 @@
       <c r="A15" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="2"/>
+      <c r="B15" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
+      <c r="E15" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
